--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3661.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3661.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.191221246787329</v>
+        <v>1.100696206092834</v>
       </c>
       <c r="B1">
-        <v>1.563780426218208</v>
+        <v>1.335281729698181</v>
       </c>
       <c r="C1">
-        <v>2.459948130904854</v>
+        <v>1.111676335334778</v>
       </c>
       <c r="D1">
-        <v>8.230835757325009</v>
+        <v>1.078254342079163</v>
       </c>
       <c r="E1">
-        <v>1.987196890066904</v>
+        <v>1.152105212211609</v>
       </c>
     </row>
   </sheetData>
